--- a/dataset/code vs conceptual/combined_analysis_all.xlsx
+++ b/dataset/code vs conceptual/combined_analysis_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/code vs conceptual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC2F018-42B6-4141-BBAD-53C84408648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD7060B-AE06-BD4B-93C9-66AB4F327EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-560" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="980" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -288,16 +288,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +463,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -471,7 +471,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -571,7 +571,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -579,7 +579,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -679,7 +679,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
-                  <c:strRef>
+                  <c:multiLvlStrRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
@@ -687,7 +687,7 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                  </c:strRef>
+                  </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
             </c:ext>
@@ -988,10 +988,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1111,13 +1111,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,10 +1582,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1705,13 +1705,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,7 +3542,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3579,7 +3579,7 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -3590,83 +3590,83 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21">
-        <v>3</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B2" s="19">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>0</v>
       </c>
-      <c r="E2" s="21">
-        <v>3</v>
-      </c>
-      <c r="F2" s="21">
+      <c r="E2" s="19">
+        <v>5</v>
+      </c>
+      <c r="F2" s="19">
         <v>1</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="19">
         <v>0</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="19">
         <f>SUM(B2:D2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="21">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="B3" s="19">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19">
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>4</v>
       </c>
-      <c r="E3" s="21">
-        <v>2</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="E3" s="19">
+        <v>5</v>
+      </c>
+      <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <f t="shared" ref="H3:H4" si="0">SUM(B3:D3)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <f>22/3</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>8</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>5</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <f>4/3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <f>29/3</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3699,14 +3699,14 @@
       </c>
       <c r="B8" s="16">
         <f>B2/$H$2</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C8" s="16">
         <f>C2/$H$2</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" ref="C8:G8" si="1">D2/$H$2</f>
+        <f t="shared" ref="D8" si="1">D2/$H$2</f>
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3714,11 +3714,11 @@
       </c>
       <c r="G8" s="16">
         <f>E2/$H$2</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H8" s="16">
         <f>F2/$H$2</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I8" s="16">
         <f>G2/$H$2</f>
@@ -3731,30 +3731,30 @@
       </c>
       <c r="B9" s="16">
         <f>B3/$H$3</f>
-        <v>0.33333333333333331</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" ref="C9:G9" si="2">C3/$H$3</f>
+        <f t="shared" ref="C9:D9" si="2">C3/$H$3</f>
         <v>0</v>
       </c>
       <c r="D9" s="16">
         <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="16">
         <f>E3/$H$3</f>
-        <v>0.33333333333333331</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="H9" s="16">
         <f>F3/$H$3</f>
-        <v>0.16666666666666666</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I9" s="16">
         <f>G3/$H$3</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C10" s="16">
-        <f t="shared" ref="C10:G10" si="3">C4/$H$4</f>
+        <f t="shared" ref="C10:D10" si="3">C4/$H$4</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D10" s="16">
@@ -3799,7 +3799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="6"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="23">
+      <c r="M2" s="21">
         <f>SUM(C2:D2,F2:I2) / K2</f>
         <v>0</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="23">
+      <c r="M3" s="21">
         <f t="shared" ref="M3:M4" si="0">SUM(C3:D3,F3:I3) / K3</f>
         <v>0</v>
       </c>
@@ -3949,18 +3949,18 @@
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <f>23/3</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
@@ -3995,11 +3995,11 @@
       <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <f t="shared" ref="B5:J5" si="1">SUM(B2:B4)</f>
         <v>10.666666666666668</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
@@ -4007,7 +4007,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <f t="shared" si="1"/>
         <v>2.6666666666666665</v>
       </c>
@@ -4019,7 +4019,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
@@ -4090,7 +4090,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4100,12 +4100,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="23"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">

--- a/dataset/code vs conceptual/combined_analysis_all.xlsx
+++ b/dataset/code vs conceptual/combined_analysis_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/code vs conceptual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD7060B-AE06-BD4B-93C9-66AB4F327EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F5F989-19AD-604F-802E-94E0ED69605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="980" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="1" r:id="rId1"/>
@@ -3541,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3799,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4077,6 +4077,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="16"/>
       <c r="M10" s="1"/>
       <c r="N10" s="11"/>
     </row>
@@ -4090,7 +4091,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
